--- a/Examples/vcr/vcr_model0.xlsx
+++ b/Examples/vcr/vcr_model0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\vcr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BAE5510-2EFE-4607-840D-60525DE81C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C05B19-9A13-4E41-9D9F-D78FDB50AAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="765" windowWidth="24390" windowHeight="14700" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="780" windowWidth="25740" windowHeight="14700" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -21,12 +21,9 @@
     <sheet name="Format" sheetId="6" r:id="rId6"/>
     <sheet name="WasteDefinition" sheetId="8" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$6</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$4</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$3</definedName>
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$C$7</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
   </definedNames>
@@ -94,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>key</t>
   </si>
@@ -271,6 +268,12 @@
   </si>
   <si>
     <t>B3</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
   </si>
 </sst>
 </file>
@@ -416,72 +419,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Reference"/>
-      <sheetName val="CMP75"/>
-      <sheetName val="TCND35"/>
-      <sheetName val="TEVP12"/>
-      <sheetName val="DTCND"/>
-      <sheetName val="DTEVP"/>
-      <sheetName val="Exergía"/>
-      <sheetName val="Diagrama"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>B1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>B2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>B3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>B4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>WC</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>QEVP</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>QCND</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -898,63 +835,56 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>[1]Reference!A2</f>
-        <v>B1</v>
+      <c r="A2" t="s">
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>[1]Reference!A3</f>
-        <v>B2</v>
+      <c r="A3" t="s">
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>[1]Reference!A4</f>
-        <v>B3</v>
+      <c r="A4" t="s">
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>[1]Reference!A5</f>
-        <v>B4</v>
+      <c r="A5" t="s">
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>[1]Reference!A6</f>
-        <v>WC</v>
+      <c r="A6" t="s">
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>[1]Reference!A7</f>
-        <v>QEVP</v>
+      <c r="A7" t="s">
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f>[1]Reference!A9</f>
-        <v>QCND</v>
+      <c r="A8" t="s">
+        <v>56</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
@@ -983,8 +913,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,36 +964,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1092,7 +1022,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D5 D2:D3</xm:sqref>
+          <xm:sqref>D2:D3 D4:D5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1138,9 +1068,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>[1]Reference!A2</f>
-        <v>B1</v>
+      <c r="A2" t="s">
+        <v>59</v>
       </c>
       <c r="B2">
         <v>24.59</v>
@@ -1162,9 +1091,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>[1]Reference!A3</f>
-        <v>B2</v>
+      <c r="A3" t="s">
+        <v>60</v>
       </c>
       <c r="B3">
         <v>65.25</v>
@@ -1186,9 +1114,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>[1]Reference!A4</f>
-        <v>B3</v>
+      <c r="A4" t="s">
+        <v>58</v>
       </c>
       <c r="B4">
         <v>55.81</v>
@@ -1210,9 +1137,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>[1]Reference!A5</f>
-        <v>B4</v>
+      <c r="A5" t="s">
+        <v>57</v>
       </c>
       <c r="B5">
         <v>49.93</v>
@@ -1234,9 +1160,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>[1]Reference!A6</f>
-        <v>WC</v>
+      <c r="A6" t="s">
+        <v>51</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -1258,9 +1183,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>[1]Reference!A7</f>
-        <v>QEVP</v>
+      <c r="A7" t="s">
+        <v>53</v>
       </c>
       <c r="B7">
         <v>18.059999999999999</v>
@@ -1282,9 +1206,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f>[1]Reference!A9</f>
-        <v>QCND</v>
+      <c r="A8" t="s">
+        <v>56</v>
       </c>
       <c r="B8">
         <f>B3-B4</f>
@@ -1438,7 +1361,7 @@
   <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Examples/vcr/vcr_model0.xlsx
+++ b/Examples/vcr/vcr_model0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\vcr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C05B19-9A13-4E41-9D9F-D78FDB50AAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EDE6D9-1809-4729-B749-390AAF0F8F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="780" windowWidth="25740" windowHeight="14700" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="750" windowWidth="21600" windowHeight="14730" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -295,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +320,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -333,11 +339,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,9 +920,7 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -933,13 +938,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -950,13 +955,13 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>47</v>
@@ -967,13 +972,13 @@
         <v>46</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>50</v>
@@ -984,13 +989,13 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>48</v>
@@ -1001,13 +1006,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>56</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>49</v>
@@ -1022,7 +1027,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D3 D4:D5</xm:sqref>
+          <xm:sqref>B2:B3 B4:B5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1035,9 +1040,7 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1045,7 +1048,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1361,7 +1364,7 @@
   <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
